--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,178 +1,446 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSO\Desktop\project\reunion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stu_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>now_gp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>컴정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>asdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@@@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iohp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>컴정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>근로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qwer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@@@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ddma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>컴정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>근로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zxcv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@@@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rheo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>since_day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="10.3"/>
+      <name val="Menlo"/>
+      <color rgb="FFA3BE8C"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -180,16 +448,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,28 +713,68 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="4" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="3" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -484,221 +1040,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1905003</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>2314</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>4389</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1905055</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>5899</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>3489</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>3493929</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>4382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>1874</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="F25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>